--- a/data/income_statement/2digits/total/71_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/71_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>71-Architectural and engineering activities; technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>71-Architectural and engineering activities; technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>7726615.917350001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>8882874.55315</v>
+        <v>8882874.553150002</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>11747387.55497</v>
+        <v>11747388.43617</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>13263455.70276</v>
+        <v>13430024.18256</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>16223412.24581</v>
+        <v>16295911.51661</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>20799919.4835</v>
+        <v>19306126.34075</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>22520447.31521</v>
+        <v>23430396.80389</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>27994815.43274001</v>
+        <v>28088018.31872</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>37362981.43267</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>37741313.42463</v>
+        <v>38099932.05793</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>40439020.07471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>41167363.38305</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>50534262.433</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>7023115.32209</v>
@@ -995,37 +906,42 @@
         <v>8093888.58701</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>10692896.04134</v>
+        <v>10692896.92254</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11812953.31799</v>
+        <v>11827225.13311</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>14409903.36932</v>
+        <v>14480189.65099</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>18466715.91371</v>
+        <v>16969152.08825</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20052917.88564</v>
+        <v>20898890.1958</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>25300708.25464</v>
+        <v>25370937.51441</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>33483198.73323</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>34305393.72481</v>
+        <v>34654089.82067</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>36138883.23421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>36757905.62887</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>44305975.732</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>535297.0764200001</v>
@@ -1037,34 +953,39 @@
         <v>768245.39449</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>1137330.17472</v>
+        <v>1289583.52949</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1469276.43161</v>
+        <v>1470074.07101</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1972485.67168</v>
+        <v>1975134.24156</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>2099843.14551</v>
+        <v>2154049.75548</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>2196554.6329</v>
+        <v>2218339.96591</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>3050147.35689</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2830251.58625</v>
+        <v>2838184.93158</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3612766.480650001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3706071.3505</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>5337818.008</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>168203.51884</v>
@@ -1076,73 +997,83 @@
         <v>286246.11914</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>313172.2100499999</v>
+        <v>313215.51996</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>344232.44488</v>
+        <v>345647.79461</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>360717.89811</v>
+        <v>361840.0109399999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>367686.28406</v>
+        <v>377456.85261</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>497552.5452</v>
+        <v>498740.8384</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>829635.3425500001</v>
+        <v>829635.3425499999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>605668.11357</v>
+        <v>607657.3056800001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>687370.3598499999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>703386.40368</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>890468.693</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>49680.16705</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>59557.94805</v>
+        <v>59557.94805000001</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>70522.21990000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>133938.46458</v>
+        <v>135727.98946</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>160962.02024</v>
+        <v>163310.10888</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1802583.82165</v>
+        <v>80222.92072999998</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>184911.26032</v>
+        <v>185928.3301</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>224212.22976</v>
+        <v>224761.53615</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>289119.85446</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>282876.31425</v>
+        <v>284582.03268</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>623424.86361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>370808.47665</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>616446.188</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>31764.15615</v>
@@ -1154,34 +1085,39 @@
         <v>51958.40322</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>96654.07058000001</v>
+        <v>96666.73498000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>120122.28283</v>
+        <v>120139.26369</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1764956.44062</v>
+        <v>42823.57328999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>156163.52821</v>
+        <v>156962.89116</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>194928.4022</v>
+        <v>195492.56008</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>230441.77942</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>228159.33584</v>
+        <v>229847.26451</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>574783.4851800001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>321941.902</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>543870.308</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>15598.64534</v>
@@ -1196,13 +1132,13 @@
         <v>16305.28051</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>34693.73618</v>
+        <v>34693.73718</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>12135.10255</v>
+        <v>11907.06896</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16766.8824</v>
+        <v>16885.83267</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>17971.18518</v>
@@ -1211,94 +1147,109 @@
         <v>35490.50563</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>31977.58335</v>
+        <v>31993.91659</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>28923.98084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>28926.62287</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>50839.461</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2317.36556</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7607.579500000001</v>
+        <v>7607.5795</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>3795.28194</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>20979.11349</v>
+        <v>22755.97397</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6146.00123</v>
+        <v>8477.10801</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>25492.27848</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>11980.84971</v>
+        <v>12079.60627</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>11312.64238</v>
+        <v>11297.79089</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>23187.56941</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>22739.39506</v>
+        <v>22740.85158</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>19717.39759</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19939.95178</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>21736.419</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>7676935.750299999</v>
+        <v>7676935.7503</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>8823316.6051</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>11676865.33507</v>
+        <v>11676866.21627</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>13129517.23818</v>
+        <v>13294296.1931</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>16062450.22557</v>
+        <v>16132601.40773</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18997335.66185</v>
+        <v>19225903.42002</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>22335536.05489</v>
+        <v>23244468.47379</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>27770603.20298</v>
+        <v>27863256.78257</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>37073861.57821</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>37458437.11037999</v>
+        <v>37815350.02525</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>39815595.2111</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>40796554.9064</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>49917816.245</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>5480369.30936</v>
@@ -1310,34 +1261,39 @@
         <v>8213039.55025</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>9357157.712539999</v>
+        <v>9518147.775969999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11568543.63378</v>
+        <v>11625922.6327</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>13933592.69817</v>
+        <v>14133716.73792</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16636212.83879</v>
+        <v>17430906.65932</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>21194463.51141</v>
+        <v>21282621.63751</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>28568194.6525</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>28827226.54928</v>
+        <v>29081879.25744</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>30649352.3271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31475990.54663</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>38719280.945</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>352612.69921</v>
@@ -1349,34 +1305,39 @@
         <v>538617.8745500001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>597412.30027</v>
+        <v>599115.612</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>779271.8955099999</v>
+        <v>786560.81501</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>965233.7738999999</v>
+        <v>973266.19938</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1164838.77028</v>
+        <v>1208680.19665</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1575321.00864</v>
+        <v>1578667.2256</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2435912.85241</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2357885.83827</v>
+        <v>2382979.50398</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3127450.35433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3182134.95716</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3529227.07</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>926702.5420499999</v>
@@ -1388,34 +1349,39 @@
         <v>1602528.39579</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1941294.50684</v>
+        <v>1944334.86064</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2229202.52356</v>
+        <v>2240255.71505</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2971219.19753</v>
+        <v>2976098.27988</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3649663.29043</v>
+        <v>3694079.92747</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4388213.58138</v>
+        <v>4392727.59337</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7303636.253089999</v>
+        <v>7303636.25309</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5630450.42308</v>
+        <v>5686684.42284</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5387320.651400001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5727276.595050001</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>9220217.852</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>4184854.91471</v>
@@ -1427,34 +1393,39 @@
         <v>6039730.27252</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6785833.765980001</v>
+        <v>6942080.16388</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>8529167.784329999</v>
+        <v>8568204.672259999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9877391.74071</v>
+        <v>10064596.41426</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11757555.46311</v>
+        <v>12459613.14188</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15130687.08893</v>
+        <v>15210891.95478</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>18678825.12268</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>20584675.95879</v>
+        <v>20757783.22174</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>21978087.32995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>22399320.03006</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>25728746.109</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>16199.15339</v>
@@ -1472,28 +1443,33 @@
         <v>30901.43038</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>119747.98603</v>
+        <v>119755.8444</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>64155.31497000001</v>
+        <v>68533.39331999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>100241.83246</v>
+        <v>100334.86376</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>149820.42432</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>254214.32914</v>
+        <v>254432.10888</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>156493.99142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>167258.96436</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>241089.914</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2196566.44094</v>
@@ -1502,79 +1478,89 @@
         <v>2612668.17129</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>3463825.78482</v>
+        <v>3463826.66602</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3772359.52564</v>
+        <v>3776148.41713</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4493906.59179</v>
+        <v>4506678.77503</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>5063742.96368</v>
+        <v>5092186.6821</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5699323.216100001</v>
+        <v>5813561.814470001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6576139.69157</v>
+        <v>6580635.14506</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>8505666.92571</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>8631210.561099999</v>
+        <v>8733470.76781</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9166242.884</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9320564.35977</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11198535.3</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1500404.37199</v>
+        <v>1500404.87199</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1698546.82295</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2195621.46281</v>
+        <v>2195633.23633</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2517180.63958</v>
+        <v>2526714.23302</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3055976.90906</v>
+        <v>3067238.37933</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3475650.43048</v>
+        <v>3495287.04738</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3999067.92003</v>
+        <v>4083403.63353</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4683284.442890001</v>
+        <v>4690170.95655</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>5719681.24804</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5934090.282179999</v>
+        <v>5974959.059739999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7063880.57459</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7169108.00242</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7217517.473</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>19973.91844999999</v>
+        <v>19973.91845</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>18239.58629</v>
@@ -1583,19 +1569,19 @@
         <v>40663.56842</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>81894.08692999999</v>
+        <v>82436.12406</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>88102.08275</v>
+        <v>88315.57485999999</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>89563.26949999999</v>
+        <v>89672.44315000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>110543.25002</v>
+        <v>110999.53715</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>117169.75709</v>
+        <v>117193.05663</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>341828.56599</v>
@@ -1604,52 +1590,62 @@
         <v>287508.24833</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>400874.67995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>405671.059</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>440928.298</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>95996.42606</v>
+        <v>95996.92606</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>115399.12391</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>163099.16255</v>
+        <v>163101.67567</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>175563.95357</v>
+        <v>180377.74444</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>191425.32418</v>
+        <v>193592.5122</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>237290.38144</v>
+        <v>239321.70697</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>285999.2026</v>
+        <v>290895.2890599999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>334813.08014</v>
+        <v>334911.0687400001</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>471777.17138</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>496064.14308</v>
+        <v>505318.42727</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>577668.97962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>590957.12379</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>707166.47</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1384434.02748</v>
@@ -1658,76 +1654,86 @@
         <v>1564908.11275</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1991858.73184</v>
+        <v>1991867.99224</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>2259722.59908</v>
+        <v>2263900.36452</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2776449.50213</v>
+        <v>2785330.292270001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>3148796.77954</v>
+        <v>3166292.89726</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3602525.46741</v>
+        <v>3681508.80732</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>4231301.60566</v>
+        <v>4238066.831180001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>4906075.51067</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>5150517.89077</v>
+        <v>5182132.384140001</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>6085336.91502</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6172479.81963</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6069422.705</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>696162.0689500001</v>
+        <v>696161.5689500001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>914121.34834</v>
+        <v>914121.3483399999</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1268204.32201</v>
+        <v>1268193.42969</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1255178.88606</v>
+        <v>1249434.18411</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1437929.68273</v>
+        <v>1439440.3957</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1588092.5332</v>
+        <v>1596899.63472</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1700255.29607</v>
+        <v>1730158.18094</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1892855.24868</v>
+        <v>1890464.18851</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2785985.67767</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2697120.27892</v>
+        <v>2758511.70807</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2102362.30941</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2151456.35735</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3981017.827</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>668829.6298999999</v>
@@ -1736,58 +1742,63 @@
         <v>645223.79987</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>961488.85229</v>
+        <v>961482.4263200002</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>687423.20625</v>
+        <v>688393.6775</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3008433.730410001</v>
+        <v>3035980.55712</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2200693.88199</v>
+        <v>2217844.69618</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3510792.626879999</v>
+        <v>3651334.61996</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3170109.60513</v>
+        <v>3174742.63612</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>4216358.774</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16814899.03794</v>
+        <v>16877808.88356</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>4391007.961850001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4437847.30211</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>7437504.139</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>39941.88482</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>73163.71266</v>
+        <v>73163.71265999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>69081.9509</v>
+        <v>69081.95090000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>98826.19532</v>
+        <v>98856.50474999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>142361.73985</v>
+        <v>167838.43357</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>292388.28243</v>
+        <v>294217.41783</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>226217.04081</v>
+        <v>226231.69553</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>259251.86204</v>
@@ -1796,16 +1807,21 @@
         <v>272436.60466</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>292417.19107</v>
+        <v>296146.36535</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>304258.51309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>306252.10155</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>170715.252</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>4944.55431</v>
@@ -1814,19 +1830,19 @@
         <v>9823.20479</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>7722.01016</v>
+        <v>7722.010159999999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7347.39538</v>
+        <v>7347.395379999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1576454.60386</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>655352.8259799998</v>
+        <v>655352.82598</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1176731.19953</v>
+        <v>1176828.95861</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>648249.0264200001</v>
@@ -1838,52 +1854,62 @@
         <v>167563.66028</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>284650.32803</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>284683.8033199999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>158922.113</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>60335.94406999999</v>
+        <v>60335.94407000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>59296.84963</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>77044.67931000001</v>
+        <v>77044.67930999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>103608.41883</v>
+        <v>103764.03627</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>112234.99187</v>
+        <v>112611.49274</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>109808.32544</v>
+        <v>110513.63069</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>161412.92936</v>
+        <v>168428.05341</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>199766.41514</v>
+        <v>200392.40541</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>337980.87808</v>
+        <v>337980.8780800001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>443185.8755400001</v>
+        <v>445378.7029799999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>524796.86734</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>530983.3648400001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>410706.911</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3691.75327</v>
@@ -1904,7 +1930,7 @@
         <v>6509.06811</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5437.513019999999</v>
+        <v>5947.69598</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>13266.0256</v>
@@ -1913,16 +1939,21 @@
         <v>8380.445740000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5324.63182</v>
+        <v>5324.631819999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5846.945110000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5907.346100000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>24278.521</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>8387.77111</v>
@@ -1937,16 +1968,16 @@
         <v>12484.05949</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>15774.20102</v>
+        <v>15777.25071</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>15221.87476</v>
+        <v>15421.69235</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>16666.57835</v>
+        <v>19294.14581</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>21293.97458999999</v>
+        <v>21425.61223</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>29320.20275</v>
@@ -1955,13 +1986,18 @@
         <v>23924.90261</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>27882.05978</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>28085.70978</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>47306.726</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>67334.03864</v>
@@ -1979,67 +2015,77 @@
         <v>183880.62179</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>6088.399149999999</v>
+        <v>6120.59181</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>13843.29488</v>
+        <v>13967.7002</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>79072.14342000001</v>
+        <v>79197.7135</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>991070.7370500001</v>
+        <v>991070.73705</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>21336.58026</v>
+        <v>21569.96264</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>38353.08149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>38866.41675</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>47430.449</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>425698.14765</v>
+        <v>425698.1476500001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>366256.89152</v>
+        <v>366256.8915200001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>676886.95638</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>340483.71017</v>
+        <v>340611.06936</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>844814.09419</v>
+        <v>845537.3909999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>940327.77533</v>
+        <v>954110.24401</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1706658.27913</v>
+        <v>1828026.76035</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1756989.45268</v>
+        <v>1760133.92369</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2105416.67486</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6616920.573449999</v>
+        <v>6670911.44519</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2879855.5724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2915399.24371</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>6145107.965</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>305.4981</v>
@@ -2054,13 +2100,13 @@
         <v>317.78815</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>920.2479999999999</v>
+        <v>920.248</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>761.7828099999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2080.41188</v>
+        <v>2087.49362</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>753.1156999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24339.0301</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>49913.883</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>216.3366</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>521.8676800000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1050.632</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>57973.70133</v>
@@ -2126,79 +2182,89 @@
         <v>89538.66208000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>82523.99566</v>
+        <v>82517.56969</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>117979.73123</v>
+        <v>118636.91642</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>127743.59992</v>
+        <v>128710.88554</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>174155.34316</v>
+        <v>174757.23777</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>201007.37109</v>
+        <v>209784.10762</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>191285.8233</v>
+        <v>191891.18529</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>262525.60885</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9241739.49492</v>
+        <v>9244503.0847</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>300503.69683</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>302808.41828</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>382071.687</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>423862.4389299999</v>
+        <v>423862.43893</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>428109.61059</v>
+        <v>428109.6105900001</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1171317.62354</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>435943.52697</v>
+        <v>436075.51032</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1001544.11135</v>
+        <v>1004288.53555</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>987836.05174</v>
+        <v>1000095.24137</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1556092.30397</v>
+        <v>1654242.8647</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1751193.52452</v>
+        <v>1753939.76077</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>2360316.78714</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>24201091.00334</v>
+        <v>24258525.76543</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>3146811.30886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3183206.864120001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>6450073.287</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4434.719150000001</v>
+        <v>4434.719149999999</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>2076.64633</v>
@@ -2216,7 +2282,7 @@
         <v>4244.367480000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5417.730050000001</v>
+        <v>5423.44351</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>4543.302989999999</v>
@@ -2225,16 +2291,21 @@
         <v>6711.73877</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4796.55904</v>
+        <v>4855.728010000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7892.38629</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7970.564870000001</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>15027.672</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>11188.47414</v>
@@ -2255,10 +2326,10 @@
         <v>36280.54853</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>35664.58433</v>
+        <v>42692.8884</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>55620.4663</v>
+        <v>55810.61495</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>86913.54137000001</v>
@@ -2267,13 +2338,18 @@
         <v>92953.70294</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>69708.23402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>70317.18432000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>48067.167</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>466.64177</v>
@@ -2291,28 +2367,33 @@
         <v>13053.71765</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>3112.6755</v>
+        <v>3112.675499999999</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>2776.63038</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4185.805679999999</v>
+        <v>4188.480140000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>19319.03429</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>20536.75912</v>
+        <v>20537.51455</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5853.09011</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5859.127280000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>8689.15</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>386420.31653</v>
@@ -2324,34 +2405,39 @@
         <v>1103588.42912</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>371028.21875</v>
+        <v>371110.4955</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>913151.50761</v>
+        <v>914732.1762400001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>890723.59179</v>
+        <v>902919.07254</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1434888.70968</v>
+        <v>1525717.95337</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1593554.38919</v>
+        <v>1596121.63791</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2152122.98007</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6374455.24252</v>
+        <v>6429449.429140001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2891961.39352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2925351.11256</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6143720.306</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>131.25242</v>
@@ -2378,19 +2464,24 @@
         <v>1061.93081</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2306.84302</v>
+        <v>2306.843019999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>304.45764</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11195.21077</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>11196.38657</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>23573.792</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>31.053</v>
@@ -2405,7 +2496,7 @@
         <v>196.48048</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>34.13985</v>
+        <v>34.13986</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>94.00316000000001</v>
@@ -2414,61 +2505,71 @@
         <v>140.05895</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>87.99142000000002</v>
+        <v>87.99142000000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>149.51588</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>551.93797</v>
+        <v>551.9379700000001</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>290.28126</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>796.148</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>21189.98192</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>33936.45944</v>
+        <v>33936.45944000001</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>47714.62639</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>34765.43872</v>
+        <v>34815.14532</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>44112.03765000001</v>
+        <v>45275.79321</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>53157.54422</v>
+        <v>53221.25310000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>76637.73663</v>
+        <v>76925.03614</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>92139.63813000001</v>
+        <v>92125.80254999999</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>92793.13373999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17707492.34411</v>
+        <v>17709872.99518</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>159910.71289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>162222.20726</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>210199.052</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>247432.33669</v>
@@ -2480,34 +2581,39 @@
         <v>245225.03058</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>203189.15909</v>
+        <v>203267.74584</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1080380.33503</v>
+        <v>1080645.00771</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1161338.27177</v>
+        <v>1161765.66682</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1344565.53127</v>
+        <v>1351402.24296</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1746117.92442</v>
+        <v>1746854.27055</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2183756.92311</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2355071.804479999</v>
+        <v>2358250.02842</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1126039.04569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1131707.78441</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>785631.241</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>169311.19426</v>
@@ -2519,34 +2625,39 @@
         <v>151152.09443</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>179480.13381</v>
+        <v>179558.72056</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>223497.90935</v>
+        <v>223762.58203</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>246367.55281</v>
+        <v>246794.94786</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>371866.12576</v>
+        <v>378561.71255</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>466164.67255</v>
+        <v>466907.46784</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>2044806.62814</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>2162349.62669</v>
+        <v>2165494.81129</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1012417.32416</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1018025.86215</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>706978.87</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>78121.14243000001</v>
@@ -2567,64 +2678,74 @@
         <v>914970.71896</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>972699.40551</v>
+        <v>972840.53041</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1279953.25187</v>
+        <v>1279946.80271</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>138950.29497</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>192722.17779</v>
+        <v>192755.21713</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>113621.72153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>113681.92226</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>78652.371</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>693696.9232300001</v>
+        <v>693696.4232300001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>933148.37133</v>
+        <v>933148.3713299999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>813150.5201800001</v>
+        <v>813133.20189</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1303469.40625</v>
+        <v>1298484.60545</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2364438.96676</v>
+        <v>2390487.40956</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1639612.09168</v>
+        <v>1652883.42271</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2310390.08771</v>
+        <v>2375847.69324</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1565653.40487</v>
+        <v>1564412.79331</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2458270.74142</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-7044143.490959999</v>
+        <v>-6980455.202220001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2220519.91671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2274389.01093</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>4182817.438</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>44168.59131</v>
@@ -2636,34 +2757,39 @@
         <v>136860.57764</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>116335.40894</v>
+        <v>116369.64894</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>152980.70835</v>
+        <v>153501.52294</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>174361.14735</v>
+        <v>176422.22327</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>244709.34342</v>
+        <v>250808.81823</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>520539.8860799999</v>
+        <v>521971.8209699999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>444813.33861</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>457504.65048</v>
+        <v>459187.83293</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>520624.47955</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>525902.7539299999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>752722.676</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3871.41609</v>
@@ -2675,34 +2801,39 @@
         <v>1729.27915</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>2174.21506</v>
+        <v>2196.94674</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2221.80202</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3114.663849999999</v>
+        <v>4724.66385</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1881.38741</v>
+        <v>2018.63914</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>9408.54133</v>
+        <v>9664.924660000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>6439.648200000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>14188.3319</v>
+        <v>15376.51541</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>8468.02584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>8467.93707</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>52577.09</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>40297.17522</v>
@@ -2714,34 +2845,39 @@
         <v>135131.29849</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>114161.19388</v>
+        <v>114172.7022</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>150758.90633</v>
+        <v>151279.72092</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>171246.4835</v>
+        <v>171697.55942</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>242827.95601</v>
+        <v>248790.17909</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>511131.34475</v>
+        <v>512306.8963099999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>438373.69041</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>443316.31858</v>
+        <v>443811.31752</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>512156.45371</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>517434.81686</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>700145.586</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>56184.83164</v>
@@ -2753,34 +2889,39 @@
         <v>1107233.2727</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>119485.47504</v>
+        <v>119498.68967</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>111764.43604</v>
+        <v>112114.80176</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>656016.5863099999</v>
+        <v>663091.9260800001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>223427.40604</v>
+        <v>230528.35278</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>1023368.33478</v>
+        <v>1024858.43107</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>290017.47069</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>970593.7144699999</v>
+        <v>977013.3281899999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>421517.71405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>426342.17262</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>507100.76</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>1037.74984</v>
@@ -2804,7 +2945,7 @@
         <v>2594.40304</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6758.156680000001</v>
+        <v>6758.65071</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2651.38581</v>
@@ -2813,13 +2954,18 @@
         <v>3480.55123</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4109.29378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4124.33144</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>10353.921</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>6973.97534</v>
@@ -2831,112 +2977,127 @@
         <v>15601.31516</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>9947.26708</v>
+        <v>9947.267080000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9838.52152</v>
+        <v>9903.699289999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>16363.26181</v>
+        <v>18082.06797</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>16724.02918</v>
+        <v>18397.40838</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>25154.00874</v>
+        <v>25302.90254</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>13167.34415</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>33486.39911</v>
+        <v>33522.50169</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>34974.44617999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>35078.41094</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>45785.037</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>48173.10646</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>58176.42084999999</v>
+        <v>58176.42085</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>1089430.17793</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>108063.74914</v>
+        <v>108076.96377</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>100293.40129</v>
+        <v>100578.58924</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>637528.03293</v>
+        <v>642884.56654</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>204108.97382</v>
+        <v>209536.54136</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>991456.1693600002</v>
+        <v>992796.8778200002</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>274198.74073</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>933626.7641300001</v>
+        <v>940010.27527</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>382433.97409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>387139.43024</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>450961.802</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>681680.6829</v>
+        <v>681680.1829</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>929645.71882</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-157222.17488</v>
+        <v>-157239.49317</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1300319.34015</v>
+        <v>1295355.56472</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2405655.23907</v>
+        <v>2431874.13074</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1157956.65272</v>
+        <v>1166213.7199</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2331672.02509</v>
+        <v>2396128.15869</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1062824.95617</v>
+        <v>1061526.18321</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2613066.60934</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-7557232.554950002</v>
+        <v>-7498280.697480001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2319626.68221</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2373949.59224</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>4428439.354</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>141547.92589</v>
@@ -2948,70 +3109,78 @@
         <v>228165.77944</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>231231.32033</v>
+        <v>231411.87385</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>293446.25642</v>
+        <v>299221.71757</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>347065.73991</v>
+        <v>349526.50638</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>386275.1877600001</v>
+        <v>401943.20583</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>455760.56462</v>
+        <v>456722.56784</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>642117.07651</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>767796.30389</v>
+        <v>785428.5610499999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>723964.008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>739488.29386</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1087623.719</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>540132.7570099999</v>
+        <v>540132.2570099999</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>759921.22086</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-385387.95432</v>
+        <v>-385405.2726099999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>1069088.01982</v>
+        <v>1063943.69087</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2112208.98265</v>
+        <v>2132652.41317</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>810890.9128099999</v>
+        <v>816687.21352</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1945396.83733</v>
+        <v>1994184.95286</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>607064.3915499999</v>
+        <v>604803.6153700001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1970949.53283</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8325028.858840001</v>
+        <v>-8283709.258529998</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1595662.67421</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1634461.29838</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>3340815.635</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>13629</v>
+        <v>13630</v>
       </c>
       <c r="D59" s="35" t="n">
         <v>16148</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>17571</v>
+        <v>17573</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>18694</v>
+        <v>18715</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>20609</v>
+        <v>20651</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>22013</v>
+        <v>22112</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>23751</v>
+        <v>24003</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>24982</v>
+        <v>25118</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>26794</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>27349</v>
+        <v>28114</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>27689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>29042</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>